--- a/data/raw/Formulario_Respostas.xlsx
+++ b/data/raw/Formulario_Respostas.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinishow\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50059DCD-C289-4B57-B5EC-3046F3A77990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Respostas ao formulário 1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
-    <t>Carimbo de data/hora</t>
+    <t>DATA/HORA</t>
   </si>
   <si>
     <t>VENDEDOR</t>
@@ -121,12 +115,51 @@
     <t>LOGOMARCA</t>
   </si>
   <si>
+    <t>Vinícius Miranda de Araújo</t>
+  </si>
+  <si>
+    <t>vinicius.miranda@leconni.com</t>
+  </si>
+  <si>
+    <t>Leconni Marcas &amp; Patentes</t>
+  </si>
+  <si>
     <t>PJ</t>
   </si>
   <si>
+    <t>https://leconni.com.br</t>
+  </si>
+  <si>
+    <t>Microempresa, assim definida em lei</t>
+  </si>
+  <si>
+    <t>Av. Getúlio Vargas</t>
+  </si>
+  <si>
+    <t>Savassi</t>
+  </si>
+  <si>
+    <t>Conjunto 500</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
     <t>MG</t>
   </si>
   <si>
+    <t>Giuseppe Cordeiro</t>
+  </si>
+  <si>
+    <t>giuseppe.cordeiro@leconni.com</t>
+  </si>
+  <si>
+    <t>Suporte de TI</t>
+  </si>
+  <si>
+    <t>Registro de Marca no INPI</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -137,45 +170,6 @@
   </si>
   <si>
     <t>nomiativa</t>
-  </si>
-  <si>
-    <t>Vinícius Miranda de Araújo</t>
-  </si>
-  <si>
-    <t>vinicius.miranda@leconni.com</t>
-  </si>
-  <si>
-    <t>Leconni Marcas &amp; Patentes</t>
-  </si>
-  <si>
-    <t>https://leconni.com.br</t>
-  </si>
-  <si>
-    <t>Microempresa, assim definida em lei</t>
-  </si>
-  <si>
-    <t>Av. Getúlio Vargas</t>
-  </si>
-  <si>
-    <t>Savassi</t>
-  </si>
-  <si>
-    <t>Conjunto 500</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Giuseppe Cordeiro</t>
-  </si>
-  <si>
-    <t>giuseppe.cordeiro@leconni.com</t>
-  </si>
-  <si>
-    <t>Suporte de TI</t>
-  </si>
-  <si>
-    <t>Registro de Marca no INPI</t>
   </si>
   <si>
     <t>Leconni Marcas e Patentes</t>
@@ -184,32 +178,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +193,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -225,7 +213,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,7 +223,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -245,45 +239,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -310,22 +335,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -337,131 +422,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -472,32 +584,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="46" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="33.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -512,7 +660,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -524,7 +672,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -539,13 +687,13 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -560,22 +708,22 @@
       <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD1" s="2" t="s">
@@ -612,114 +760,449 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45560</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="8">
+        <v>31163186000123</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
-        <v>45560</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="L2" s="9">
+        <v>671</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="5">
-        <v>31163186000123</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="Q2" s="9">
+        <v>30180101</v>
+      </c>
+      <c r="R2" s="9">
+        <v>31912345678</v>
+      </c>
+      <c r="S2" s="9">
+        <v>31912345679</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2">
-        <v>671</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="X2" s="9">
+        <v>31912345677</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>31912345675</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>31912355678</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>1400</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>800</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>600</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2">
-        <v>30180101</v>
-      </c>
-      <c r="R2">
-        <v>31912345678</v>
-      </c>
-      <c r="S2">
-        <v>31912345678</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AF2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X2">
-        <v>31912345678</v>
-      </c>
-      <c r="Y2">
-        <v>31912345678</v>
-      </c>
-      <c r="Z2">
-        <v>31912345678</v>
-      </c>
-      <c r="AA2">
-        <v>1400</v>
-      </c>
-      <c r="AB2">
-        <v>800</v>
-      </c>
-      <c r="AC2">
-        <v>600</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
-    <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI10" s="6"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0A82676A-CD59-43FA-B523-62B7D654E2A3}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{040B4A42-BDD3-4631-8C91-B53E379701D8}"/>
-    <hyperlink ref="V2" r:id="rId3" xr:uid="{648BDFBD-622B-464F-AF2D-D15D01C343AF}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>